--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/6五年计划：深挖洞广积粮/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1279,6 +1279,61 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2335李笑来</t>
+    <rPh sb="4" eb="5">
+      <t>li'xiao'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出门跑步中期顺利结束</t>
+    <rPh sb="0" eb="1">
+      <t>chu'men</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pao'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong'qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shun'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不复习真的不知道没记住什么</t>
+    <rPh sb="0" eb="1">
+      <t>bu'fu'xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhen'de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'zhi'dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei'ji'zhu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen'me</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1703,7 +1758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2379,97 +2434,114 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>20171211</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>2608</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>20171212</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>20171213</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>20171214</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>20171215</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>20171216</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>20171217</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>20171218</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>20171219</v>
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>20171220</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>20171221</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>20171222</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>20171223</v>
       </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>20171224</v>
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>20171225</v>
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>20171226</v>
       </c>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
     <sheet name="复利表" sheetId="2" r:id="rId2"/>
     <sheet name="定投表" sheetId="3" r:id="rId3"/>
+    <sheet name="谷歌股票" sheetId="9" r:id="rId4"/>
+    <sheet name="美股" sheetId="4" r:id="rId5"/>
+    <sheet name="比特币" sheetId="5" r:id="rId6"/>
+    <sheet name="A股" sheetId="6" r:id="rId7"/>
+    <sheet name="定投策略" sheetId="7" r:id="rId8"/>
+    <sheet name="大额收支" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1335,6 +1341,295 @@
     <rPh sb="11" eb="12">
       <t>shen'me</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里汇款</t>
+  </si>
+  <si>
+    <t>换美股4500$</t>
+  </si>
+  <si>
+    <t>马云14股巴菲特10股</t>
+  </si>
+  <si>
+    <t>卖出全部巴菲特</t>
+    <rPh sb="0" eb="1">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ba'fei'te</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入人民币一万</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'min'bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换美元1300</t>
+    <rPh sb="0" eb="1">
+      <t>huan'mei'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马云25股</t>
+    <rPh sb="0" eb="1">
+      <t>ma'yun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果1股马云30股</t>
+    <rPh sb="0" eb="1">
+      <t>ping'guo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <rPh sb="0" eb="1">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次币量</t>
+    <rPh sb="0" eb="1">
+      <t>dan'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总币量</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>股数</t>
+  </si>
+  <si>
+    <t>买入PE</t>
+  </si>
+  <si>
+    <t>盈利收益率</t>
+  </si>
+  <si>
+    <t>手续费</t>
+  </si>
+  <si>
+    <t>红利ETF</t>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
+    <t>我的定投计划</t>
+  </si>
+  <si>
+    <t>详解</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>非工作收入</t>
+  </si>
+  <si>
+    <t>定投6年即30岁后，基金资产每月为自己提供房租约2000元</t>
+  </si>
+  <si>
+    <t>初始定投金额</t>
+  </si>
+  <si>
+    <t>定投开始日期</t>
+  </si>
+  <si>
+    <t>投资方法</t>
+  </si>
+  <si>
+    <t>初期跟投、后期独立投资</t>
+  </si>
+  <si>
+    <t>按照盈利收益率法低买高卖，持续投入股指基金，红利ETF为主</t>
+  </si>
+  <si>
+    <t>买什么</t>
+  </si>
+  <si>
+    <t>红利基金</t>
+  </si>
+  <si>
+    <t>让自己的现金流充实起来</t>
+  </si>
+  <si>
+    <t>什么时候买</t>
+  </si>
+  <si>
+    <t>每月底工资到账时候第一个交易日</t>
+  </si>
+  <si>
+    <t>怎么买</t>
+  </si>
+  <si>
+    <t>每月增加定投金额</t>
+  </si>
+  <si>
+    <t>当月投入资金=起投金额*(1.02)^(月份)*(10PE/当前PE)</t>
+  </si>
+  <si>
+    <t>卖什么</t>
+  </si>
+  <si>
+    <t>如果红利ETF盈利收益率小于自己能找到的其他低风险产品，卖出ETF</t>
+  </si>
+  <si>
+    <t>怎么卖</t>
+  </si>
+  <si>
+    <t>按月反方向卖出</t>
+  </si>
+  <si>
+    <t>与定投买入相反，卖出手中持有的份额。卖出份额投入到盈利收益率更高的地方</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>可以找关系降低手续费，但是手续费的降低会出现在一定的时间段内，不如月底之类的，不太可能立即降低</t>
+  </si>
+  <si>
+    <t>既然知道都买红利ETF，有两种心态，完全可以无视价格反正就是看盈利收益率买了等分红，但是也明显可以尽可能买好分红，后一种回报更明显。</t>
+  </si>
+  <si>
+    <t>到每天的晚上快结束（下午四点左右有人要赶紧退场？）的时候价格会更低一些？那时候买入可以低价大量买入，或者就一天一天少量分散投资100股。</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>用量</t>
+  </si>
+  <si>
+    <t>银行存量</t>
+  </si>
+  <si>
+    <t>补发工资</t>
+  </si>
+  <si>
+    <t>买比特币</t>
+  </si>
+  <si>
+    <t>父亲转账</t>
+  </si>
+  <si>
+    <t>母亲转账</t>
+  </si>
+  <si>
+    <t>上交学费</t>
+  </si>
+  <si>
+    <t>借王天琪药费</t>
+  </si>
+  <si>
+    <t>买红利ETF</t>
+  </si>
+  <si>
+    <t>父亲转账路费</t>
+  </si>
+  <si>
+    <t>财新网3年订阅</t>
+  </si>
+  <si>
+    <t>美股转账</t>
+  </si>
+  <si>
+    <t>修婷还学费</t>
+  </si>
+  <si>
+    <t>购买红利ETF</t>
+  </si>
+  <si>
+    <t>学费返还</t>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-Chg&amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1440,7 +1735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,6 +1756,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -4456,4 +4761,794 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>20171212</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1045.3900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="26" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>171009</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>171125</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>171201</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>170720</v>
+      </c>
+      <c r="B2" s="9">
+        <v>500.09</v>
+      </c>
+      <c r="C2" s="9">
+        <v>16000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>170812</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>22000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="9">
+        <f>E2+D3</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>170813</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="9">
+        <v>27000</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.185</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E5" si="0">E3+D4</f>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>170814</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="9">
+        <v>27000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.111</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>171206</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7000</v>
+      </c>
+      <c r="C6" s="9">
+        <v>89999</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.49009999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>170825</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.024</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.84</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>170907</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="E3" s="8">
+        <v>700</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>171009</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>171108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="11">
+        <v>42966</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>170715</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>170720</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>170729</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>170815</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>170820</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>170826</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>170827</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-13000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>170828</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>170830</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>170907</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-2200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>171009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>171025</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-900</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>171026</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-29750</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>171101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>171105</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-5000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>171201</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>171206</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-7000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
-    <sheet name="复利表" sheetId="2" r:id="rId2"/>
-    <sheet name="定投表" sheetId="3" r:id="rId3"/>
-    <sheet name="谷歌股票" sheetId="9" r:id="rId4"/>
+    <sheet name="选择记录" sheetId="10" r:id="rId2"/>
+    <sheet name="复利表" sheetId="2" r:id="rId3"/>
+    <sheet name="定投表" sheetId="3" r:id="rId4"/>
     <sheet name="美股" sheetId="4" r:id="rId5"/>
     <sheet name="比特币" sheetId="5" r:id="rId6"/>
     <sheet name="A股" sheetId="6" r:id="rId7"/>
     <sheet name="定投策略" sheetId="7" r:id="rId8"/>
     <sheet name="大额收支" sheetId="8" r:id="rId9"/>
+    <sheet name="谷歌股票" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="198">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1630,6 +1631,77 @@
   </si>
   <si>
     <t>G-Chg&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200李笑来</t>
+    <rPh sb="4" eb="5">
+      <t>li'xiao'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步并且报班</t>
+    <rPh sb="0" eb="1">
+      <t>pao'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于标志健康的一天</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'yu'biao'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kang'de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父亲视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'fu'qin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真的是明白自己多爱做没必要的事</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'bai'zi'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo'chun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ai'zuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'bi'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2061,9 +2133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2766,13 +2838,47 @@
       <c r="A34" s="3">
         <v>20171212</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="B34" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>20171213</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="B35" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -2889,7 +2995,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>20171212</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1045.3900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -3793,7 +3953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -4756,47 +4916,6 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>20171212</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1045.3900000000001</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1015,10 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早起吃粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想明白做事顺序并完成中期报告</t>
     <rPh sb="0" eb="1">
       <t>xiang'ming'bai</t>
@@ -1211,32 +1207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日定投耕作</t>
-    <rPh sb="0" eb="1">
-      <t>mei'ri</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ding'tou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>geng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日收获耕作</t>
-    <rPh sb="0" eb="1">
-      <t>mei'ri</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'huo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>geng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粮食自由耕作</t>
     <rPh sb="0" eb="1">
       <t>liang'shi</t>
@@ -1701,6 +1671,110 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做实验看视频</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'shi'yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kan'shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出门一下午居然又感觉累</t>
+    <rPh sb="0" eb="1">
+      <t>chu'lai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>men</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'xia'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju'ran</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan'jue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟同学聊天</t>
+    <rPh sb="0" eb="1">
+      <t>gen'tong'xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投健身</t>
+    <rPh sb="0" eb="1">
+      <t>ding'tou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理结束一本书</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li'jei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ben'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每晚定投耕作</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ri</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'tou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎时耕作</t>
+    <rPh sb="0" eb="1">
+      <t>sui'shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>geng'zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2134,8 +2208,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2152,25 +2226,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2224,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2244,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -2264,7 +2338,7 @@
         <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -2287,7 +2361,7 @@
         <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
@@ -2307,7 +2381,7 @@
         <v>178</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -2327,7 +2401,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
@@ -2347,7 +2421,7 @@
         <v>188</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -2367,7 +2441,7 @@
         <v>358</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
@@ -2387,7 +2461,7 @@
         <v>471</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -2407,7 +2481,7 @@
         <v>602</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
@@ -2427,7 +2501,7 @@
         <v>463</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>26</v>
@@ -2447,7 +2521,7 @@
         <v>161</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -2656,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>46</v>
@@ -2679,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>48</v>
@@ -2759,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>88</v>
@@ -2779,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2799,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2822,16 +2896,16 @@
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2845,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2874,7 +2948,7 @@
         <v>51</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
@@ -2884,13 +2958,44 @@
       <c r="A36" s="3">
         <v>20171214</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>20171215</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="B37" s="3">
+        <v>1575</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -3010,13 +3115,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4949,16 +5054,16 @@
         <v>171009</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1">
         <v>30000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4966,10 +5071,10 @@
         <v>171125</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4977,16 +5082,16 @@
         <v>171201</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="9">
         <v>10000</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5010,19 +5115,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5131,28 +5236,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5160,10 +5265,10 @@
         <v>170825</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1">
         <v>3.024</v>
@@ -5186,10 +5291,10 @@
         <v>170907</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1">
         <v>3.0249999999999999</v>
@@ -5206,10 +5311,10 @@
         <v>171009</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="8"/>
@@ -5222,10 +5327,10 @@
         <v>171108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1">
         <v>3.0550000000000002</v>
@@ -5261,27 +5366,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1">
         <v>1200</v>
@@ -5290,7 +5395,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B4" s="11">
         <v>42966</v>
@@ -5299,64 +5404,64 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5371,25 +5476,25 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5416,16 +5521,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5433,7 +5538,7 @@
         <v>170715</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1">
         <v>5400</v>
@@ -5447,7 +5552,7 @@
         <v>170720</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1">
         <v>-2500</v>
@@ -5461,7 +5566,7 @@
         <v>170729</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1">
         <v>10000</v>
@@ -5475,7 +5580,7 @@
         <v>170815</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1">
         <v>-8000</v>
@@ -5489,7 +5594,7 @@
         <v>170820</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1">
         <v>20000</v>
@@ -5503,7 +5608,7 @@
         <v>170826</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1">
         <v>-8000</v>
@@ -5517,7 +5622,7 @@
         <v>170827</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1">
         <v>-13000</v>
@@ -5531,7 +5636,7 @@
         <v>170828</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1">
         <v>-3000</v>
@@ -5545,7 +5650,7 @@
         <v>170830</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1">
         <v>2000</v>
@@ -5559,7 +5664,7 @@
         <v>170907</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1">
         <v>-2200</v>
@@ -5573,7 +5678,7 @@
         <v>171009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1">
         <v>30000</v>
@@ -5587,7 +5692,7 @@
         <v>171025</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1">
         <v>-900</v>
@@ -5601,7 +5706,7 @@
         <v>171026</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1">
         <v>-29750</v>
@@ -5615,7 +5720,7 @@
         <v>171101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1">
         <v>5000</v>
@@ -5629,7 +5734,7 @@
         <v>171105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" s="1">
         <v>-5000</v>
@@ -5643,7 +5748,7 @@
         <v>171201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1">
         <v>8000</v>
@@ -5657,7 +5762,7 @@
         <v>171206</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1">
         <v>-7000</v>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="208">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1775,6 +1775,83 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100李笑来</t>
+    <rPh sb="4" eb="5">
+      <t>li'xiao'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任志强的内容要全部掌握</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zhi'qiang'de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yao'quan'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang'wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听完任志强演讲整理任志强</t>
+    <rPh sb="0" eb="1">
+      <t>ting'wna</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'zhi'qinag</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'jiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng'li'ren'zhi'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟家里人视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jia'li'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午运动上课晚上能够看书写作</t>
+    <rPh sb="0" eb="1">
+      <t>xia'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>neng'gou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kan'shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xie'zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3001,13 +3078,47 @@
       <c r="A38" s="3">
         <v>20171216</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="B38" s="3">
+        <v>1521</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>20171217</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="B39" s="3">
+        <v>2142</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -2285,8 +2285,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="212">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1852,6 +1852,55 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>xie'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2125金灿荣</t>
+    <rPh sb="4" eb="5">
+      <t>jin'can'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上阅读制作脑图</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yeu'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nao'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天整理完一本书</t>
+    <rPh sb="0" eb="1">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng'li'wan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'ben'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给修婷买吃的</t>
+    <rPh sb="0" eb="1">
+      <t>gei'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi'de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2285,8 +2334,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3124,7 +3173,24 @@
       <c r="A40" s="3">
         <v>20171218</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="B40" s="3">
+        <v>2881</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="217">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1901,6 +1901,68 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>chi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000李笑来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动加结束很多文章</t>
+    <rPh sb="0" eb="1">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hen'duo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理完自己的序列</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷商量工作</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shnag'liang'gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍写作</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2331,34 +2393,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>111</v>
+      <c r="C1" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>201</v>
@@ -2372,17 +2434,17 @@
       <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20171110</v>
       </c>
       <c r="B2" s="3">
         <v>2131</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2392,17 +2454,17 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20171111</v>
       </c>
       <c r="B3" s="3">
         <v>2422</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2412,17 +2474,17 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>20171112</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
       <c r="D4" s="5" t="s">
         <v>107</v>
       </c>
@@ -2432,17 +2494,17 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>20171113</v>
       </c>
       <c r="B5" s="3">
         <v>303</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
       <c r="D5" s="3" t="s">
         <v>106</v>
       </c>
@@ -2452,17 +2514,17 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>20171114</v>
       </c>
       <c r="B6" s="3">
         <v>655</v>
       </c>
-      <c r="C6" s="1">
-        <v>143</v>
-      </c>
       <c r="D6" s="3" t="s">
         <v>105</v>
       </c>
@@ -2475,17 +2537,17 @@
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20171115</v>
       </c>
       <c r="B7" s="3">
         <v>2286</v>
       </c>
-      <c r="C7" s="1">
-        <v>149</v>
-      </c>
       <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
@@ -2495,17 +2557,17 @@
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>20171116</v>
       </c>
       <c r="B8" s="3">
         <v>1754</v>
       </c>
-      <c r="C8" s="1">
-        <v>178</v>
-      </c>
       <c r="D8" s="3" t="s">
         <v>103</v>
       </c>
@@ -2515,17 +2577,17 @@
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>20171117</v>
       </c>
       <c r="B9" s="3">
         <v>993</v>
       </c>
-      <c r="C9" s="1">
-        <v>49</v>
-      </c>
       <c r="D9" s="3" t="s">
         <v>102</v>
       </c>
@@ -2535,17 +2597,17 @@
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>20171118</v>
       </c>
       <c r="B10" s="3">
         <v>1721</v>
       </c>
-      <c r="C10" s="1">
-        <v>188</v>
-      </c>
       <c r="D10" s="3" t="s">
         <v>101</v>
       </c>
@@ -2555,17 +2617,17 @@
       <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20171119</v>
       </c>
       <c r="B11" s="3">
         <v>1361</v>
       </c>
-      <c r="C11" s="1">
-        <v>358</v>
-      </c>
       <c r="D11" s="3" t="s">
         <v>100</v>
       </c>
@@ -2575,17 +2637,17 @@
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20171120</v>
       </c>
       <c r="B12" s="3">
         <v>2142</v>
       </c>
-      <c r="C12" s="1">
-        <v>471</v>
-      </c>
       <c r="D12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2595,17 +2657,17 @@
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>20171121</v>
       </c>
       <c r="B13" s="3">
         <v>1139</v>
       </c>
-      <c r="C13" s="1">
-        <v>602</v>
-      </c>
       <c r="D13" s="3" t="s">
         <v>98</v>
       </c>
@@ -2615,17 +2677,17 @@
       <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20171122</v>
       </c>
       <c r="B14" s="3">
         <v>1383</v>
       </c>
-      <c r="C14" s="1">
-        <v>463</v>
-      </c>
       <c r="D14" s="3" t="s">
         <v>97</v>
       </c>
@@ -2635,17 +2697,17 @@
       <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20171123</v>
       </c>
       <c r="B15" s="3">
         <v>1171</v>
       </c>
-      <c r="C15" s="1">
-        <v>161</v>
-      </c>
       <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
@@ -2655,17 +2717,17 @@
       <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20171124</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="1">
-        <v>76</v>
-      </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
@@ -2678,17 +2740,17 @@
       <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>20171125</v>
       </c>
       <c r="B17" s="3">
         <v>833</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,17 +2760,17 @@
       <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>20171126</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
@@ -2721,17 +2783,17 @@
       <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>20171127</v>
       </c>
       <c r="B19" s="3">
         <v>2879</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
@@ -2741,17 +2803,17 @@
       <c r="F19" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20171128</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
@@ -2761,17 +2823,17 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20171129</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
@@ -2781,17 +2843,17 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20171130</v>
       </c>
       <c r="B22" s="3">
         <v>48</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
@@ -2804,17 +2866,17 @@
       <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20171201</v>
       </c>
       <c r="B23" s="3">
         <v>838</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2824,17 +2886,17 @@
       <c r="F23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20171202</v>
       </c>
       <c r="B24" s="3">
         <v>1410</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2844,17 +2906,17 @@
       <c r="F24" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20171203</v>
       </c>
       <c r="B25" s="3">
         <v>1269</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
       <c r="D25" s="3" t="s">
         <v>95</v>
       </c>
@@ -2867,17 +2929,17 @@
       <c r="G25" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>20171204</v>
       </c>
       <c r="B26" s="3">
         <v>1605</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
       <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
@@ -2887,17 +2949,17 @@
       <c r="F26" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>20171205</v>
       </c>
       <c r="B27" s="3">
         <v>4483</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2907,17 +2969,17 @@
       <c r="F27" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>20171206</v>
       </c>
       <c r="B28" s="3">
         <v>2420</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
@@ -2927,17 +2989,17 @@
       <c r="F28" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20171207</v>
       </c>
       <c r="B29" s="3">
         <v>2176</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2947,17 +3009,17 @@
       <c r="F29" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>20171208</v>
       </c>
       <c r="B30" s="3">
         <v>1365</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
       <c r="D30" s="3" t="s">
         <v>93</v>
       </c>
@@ -2967,17 +3029,17 @@
       <c r="F30" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20171209</v>
       </c>
       <c r="B31" s="3">
         <v>3143</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
       <c r="D31" s="3" t="s">
         <v>92</v>
       </c>
@@ -2987,17 +3049,17 @@
       <c r="F31" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>20171210</v>
       </c>
       <c r="B32" s="3">
         <v>2000</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
       <c r="D32" s="3" t="s">
         <v>110</v>
       </c>
@@ -3010,17 +3072,17 @@
       <c r="G32" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>20171211</v>
       </c>
       <c r="B33" s="3">
         <v>2608</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
       <c r="D33" s="3" t="s">
         <v>116</v>
       </c>
@@ -3033,17 +3095,17 @@
       <c r="G33" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>20171212</v>
       </c>
       <c r="B34" s="3">
         <v>1981</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
       <c r="D34" s="3" t="s">
         <v>190</v>
       </c>
@@ -3056,17 +3118,17 @@
       <c r="G34" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>20171213</v>
       </c>
       <c r="B35" s="3">
         <v>1979</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
@@ -3079,17 +3141,17 @@
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>20171214</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
       <c r="D36" s="3" t="s">
         <v>4</v>
       </c>
@@ -3102,17 +3164,17 @@
       <c r="G36" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>20171215</v>
       </c>
       <c r="B37" s="3">
         <v>1575</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
       <c r="D37" s="3" t="s">
         <v>4</v>
       </c>
@@ -3122,17 +3184,17 @@
       <c r="F37" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>20171216</v>
       </c>
       <c r="B38" s="3">
         <v>1521</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
       <c r="D38" s="3" t="s">
         <v>203</v>
       </c>
@@ -3145,17 +3207,17 @@
       <c r="G38" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>20171217</v>
       </c>
       <c r="B39" s="3">
         <v>2142</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
       <c r="D39" s="3" t="s">
         <v>4</v>
       </c>
@@ -3168,17 +3230,17 @@
       <c r="G39" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>20171218</v>
       </c>
       <c r="B40" s="3">
         <v>2881</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
       <c r="D40" s="3" t="s">
         <v>208</v>
       </c>
@@ -3191,84 +3253,104 @@
       <c r="G40" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>20171219</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>1714</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>20171220</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>20171221</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>20171222</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>20171223</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>20171224</v>
       </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>20171225</v>
       </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>20171226</v>
       </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>20171227</v>
       </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>20171228</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>20171229</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>20171230</v>
       </c>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>20171231</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -1957,12 +1957,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书籍写作</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xie'zuo</t>
+    <t>概念记录</t>
+    <rPh sb="0" eb="1">
+      <t>gai'nian'ji'lu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2396,7 +2393,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="220">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1961,6 +1961,42 @@
     <rPh sb="0" eb="1">
       <t>gai'nian'ji'lu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上读书整理框架</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuang'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看任志强和视频</t>
+    <rPh sb="0" eb="1">
+      <t>kan'wan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren'zhi'qiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给华冠勋下载书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2393,8 +2429,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3280,6 +3316,18 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>20171220</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3898</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="H42" s="1"/>
     </row>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="221">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1957,13 +1957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概念记录</t>
-    <rPh sb="0" eb="1">
-      <t>gai'nian'ji'lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晚上读书整理框架</t>
     <rPh sb="0" eb="1">
       <t>wan'shang</t>
@@ -1997,6 +1990,20 @@
   </si>
   <si>
     <t>给华冠勋下载书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200逻辑学</t>
+    <rPh sb="4" eb="5">
+      <t>luo'ji'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000逻辑学</t>
+    <rPh sb="4" eb="5">
+      <t>luo'ji'xue</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2426,26 +2433,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
@@ -2453,949 +2460,955 @@
         <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20171110</v>
       </c>
       <c r="B2" s="3">
         <v>2131</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20171111</v>
       </c>
       <c r="B3" s="3">
         <v>2422</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>20171112</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>107</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>20171113</v>
       </c>
       <c r="B5" s="3">
         <v>303</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>20171114</v>
       </c>
       <c r="B6" s="3">
         <v>655</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20171115</v>
       </c>
       <c r="B7" s="3">
         <v>2286</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>20171116</v>
       </c>
       <c r="B8" s="3">
         <v>1754</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1">
+      <c r="G8" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>20171117</v>
       </c>
       <c r="B9" s="3">
         <v>993</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>20171118</v>
       </c>
       <c r="B10" s="3">
         <v>1721</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20171119</v>
       </c>
       <c r="B11" s="3">
         <v>1361</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20171120</v>
       </c>
       <c r="B12" s="3">
         <v>2142</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>20171121</v>
       </c>
       <c r="B13" s="3">
         <v>1139</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <v>602</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20171122</v>
       </c>
       <c r="B14" s="3">
         <v>1383</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20171123</v>
       </c>
       <c r="B15" s="3">
         <v>1171</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="1">
+      <c r="G15" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20171124</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="1">
+      <c r="G16" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>20171125</v>
       </c>
       <c r="B17" s="3">
         <v>833</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="1">
+      <c r="G17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>20171126</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>20171127</v>
       </c>
       <c r="B19" s="3">
         <v>2879</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D19" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="1">
+      <c r="G19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20171128</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20171129</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20171130</v>
       </c>
       <c r="B22" s="3">
         <v>48</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="1">
+      <c r="G22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20171201</v>
       </c>
       <c r="B23" s="3">
         <v>838</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="1">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20171202</v>
       </c>
       <c r="B24" s="3">
         <v>1410</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="1">
+      <c r="G24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20171203</v>
       </c>
       <c r="B25" s="3">
         <v>1269</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="1">
+      <c r="G25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>20171204</v>
       </c>
       <c r="B26" s="3">
         <v>1605</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="1">
+      <c r="G26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>20171205</v>
       </c>
       <c r="B27" s="3">
         <v>4483</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="1">
+      <c r="G27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>20171206</v>
       </c>
       <c r="B28" s="3">
         <v>2420</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="1">
+      <c r="G28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20171207</v>
       </c>
       <c r="B29" s="3">
         <v>2176</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D29" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="1">
+      <c r="G29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>20171208</v>
       </c>
       <c r="B30" s="3">
         <v>1365</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="1">
+      <c r="G30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20171209</v>
       </c>
       <c r="B31" s="3">
         <v>3143</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="1">
+      <c r="G31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>20171210</v>
       </c>
       <c r="B32" s="3">
         <v>2000</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="D32" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="1">
+      <c r="G32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>20171211</v>
       </c>
       <c r="B33" s="3">
         <v>2608</v>
       </c>
+      <c r="C33" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="D33" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="1">
+      <c r="G33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>20171212</v>
       </c>
       <c r="B34" s="3">
         <v>1981</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G34" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="1">
+      <c r="G34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>20171213</v>
       </c>
       <c r="B35" s="3">
         <v>1979</v>
       </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>20171214</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
       </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="1">
+      <c r="G36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>20171215</v>
       </c>
       <c r="B37" s="3">
         <v>1575</v>
       </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D37" s="3" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H37" s="1">
+      <c r="G37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>20171216</v>
       </c>
       <c r="B38" s="3">
         <v>1521</v>
       </c>
+      <c r="C38" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H38" s="1">
+      <c r="G38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>20171217</v>
       </c>
       <c r="B39" s="3">
         <v>2142</v>
       </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H39" s="1">
+      <c r="G39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>20171218</v>
       </c>
       <c r="B40" s="3">
         <v>2881</v>
       </c>
+      <c r="C40" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="1">
+      <c r="G40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>20171219</v>
       </c>
       <c r="B41" s="3">
         <v>1714</v>
       </c>
+      <c r="C41" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D41" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H41" s="1">
+      <c r="G41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>20171220</v>
       </c>
       <c r="B42" s="3">
         <v>3898</v>
       </c>
+      <c r="C42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="E42" s="3" t="s">
         <v>217</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>20171221</v>
       </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <v>3274</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>20171222</v>
       </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>20171223</v>
       </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>20171224</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>20171225</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>20171226</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>20171227</v>
       </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>20171228</v>
       </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>20171229</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>20171230</v>
       </c>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>20171231</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="223">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2003,6 +2003,44 @@
     <t>1000逻辑学</t>
     <rPh sb="4" eb="5">
       <t>luo'ji'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上没去运动又做实验做不出来</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'zuo'shi'yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zuo'bu'chu'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理一章书但是不够多</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'gou'duo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2437,7 +2475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3343,16 +3381,25 @@
         <v>20171221</v>
       </c>
       <c r="B43" s="3">
-        <v>3274</v>
+        <v>4301</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>220</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>20171222</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3107</v>
       </c>
       <c r="G44" s="1"/>
     </row>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="233">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2041,6 +2041,127 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>bu'gou'duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟杨玉川视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yang'yu'chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100大熊</t>
+    <rPh sb="4" eb="5">
+      <t>da'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200大熊</t>
+    <rPh sb="4" eb="5">
+      <t>da'ixong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动健身</t>
+    <rPh sb="0" eb="1">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又去运动健身</t>
+    <rPh sb="0" eb="1">
+      <t>you'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看芳华写影评发现可以是一个途径表达自己</t>
+    <rPh sb="0" eb="1">
+      <t>kan'fang'hua</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xie'ying'ping</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa'xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu'jing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>biao'da</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟家里人视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jia'li'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理大熊</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理大熊</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li'da'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟人吃饭</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chi'fan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2475,7 +2596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,17 +3522,56 @@
       <c r="B44" s="3">
         <v>3107</v>
       </c>
+      <c r="C44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>20171223</v>
       </c>
+      <c r="B45" s="3">
+        <v>1368</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>20171224</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2119</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="G46" s="1"/>
     </row>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="236">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1766,12 +1766,425 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碎时耕作</t>
-    <rPh sb="0" eb="1">
-      <t>sui'shi</t>
+    <t>1100李笑来</t>
+    <rPh sb="4" eb="5">
+      <t>li'xiao'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任志强的内容要全部掌握</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zhi'qiang'de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yao'quan'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang'wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听完任志强演讲整理任志强</t>
+    <rPh sb="0" eb="1">
+      <t>ting'wna</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'zhi'qinag</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'jiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng'li'ren'zhi'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟家里人视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
     </rPh>
     <rPh sb="1" eb="2">
+      <t>jia'li'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午运动上课晚上能够看书写作</t>
+    <rPh sb="0" eb="1">
+      <t>xia'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>neng'gou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kan'shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xie'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2125金灿荣</t>
+    <rPh sb="4" eb="5">
+      <t>jin'can'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上阅读制作脑图</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yeu'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nao'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天整理完一本书</t>
+    <rPh sb="0" eb="1">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng'li'wan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi'ben'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给修婷买吃的</t>
+    <rPh sb="0" eb="1">
+      <t>gei'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000李笑来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动加结束很多文章</t>
+    <rPh sb="0" eb="1">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hen'duo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理完自己的序列</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xu'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷商量工作</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shnag'liang'gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上读书整理框架</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuang'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看任志强和视频</t>
+    <rPh sb="0" eb="1">
+      <t>kan'wan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren'zhi'qiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给华冠勋下载书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200逻辑学</t>
+    <rPh sb="4" eb="5">
+      <t>luo'ji'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000逻辑学</t>
+    <rPh sb="4" eb="5">
+      <t>luo'ji'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上没去运动又做实验做不出来</t>
+    <rPh sb="0" eb="1">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'zuo'shi'yan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zuo'bu'chu'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理一章书但是不够多</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'gou'duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟杨玉川视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yang'yu'chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100大熊</t>
+    <rPh sb="4" eb="5">
+      <t>da'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200大熊</t>
+    <rPh sb="4" eb="5">
+      <t>da'ixong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动健身</t>
+    <rPh sb="0" eb="1">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又去运动健身</t>
+    <rPh sb="0" eb="1">
+      <t>you'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看芳华写影评发现可以是一个途径表达自己</t>
+    <rPh sb="0" eb="1">
+      <t>kan'fang'hua</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xie'ying'ping</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa'xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu'jing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>biao'da</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟家里人视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jia'li'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理大熊</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理大熊</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li'da'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟人吃饭</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chi'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身课程学习新训练内容</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shen'ke'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'zi'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xun'lian'nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书但是时间太少</t>
+    <rPh sb="0" eb="1">
+      <t>kan'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'hsi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian'tai'shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反思耕作</t>
+    <rPh sb="0" eb="1">
+      <t>fan'si</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>geng'zuo</t>
@@ -1779,389 +2192,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1100李笑来</t>
-    <rPh sb="4" eb="5">
-      <t>li'xiao'lai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任志强的内容要全部掌握</t>
-    <rPh sb="0" eb="1">
-      <t>ren'zhi'qiang'de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>nei'rong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yao'quan'bu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhang'wo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听完任志强演讲整理任志强</t>
-    <rPh sb="0" eb="1">
-      <t>ting'wna</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren'zhi'qinag</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yan'jiang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zheng'li'ren'zhi'qiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟家里人视频</t>
-    <rPh sb="0" eb="1">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jia'li'ren</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午运动上课晚上能够看书写作</t>
-    <rPh sb="0" eb="1">
-      <t>xia'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yun'dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shang'ke</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wan'shang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>neng'gou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>kan'shu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xie'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2125金灿荣</t>
-    <rPh sb="4" eb="5">
-      <t>jin'can'rong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上阅读制作脑图</t>
-    <rPh sb="0" eb="1">
-      <t>wan'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yeu'du</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi'zuo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>nao'tu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天整理完一本书</t>
-    <rPh sb="0" eb="1">
-      <t>jin'tian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zheng'li'wan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yi'ben'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给修婷买吃的</t>
-    <rPh sb="0" eb="1">
-      <t>gei'xiu'ting</t>
+    <t>跟修婷亲密付</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>mai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chi'de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000李笑来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动加结束很多文章</t>
-    <rPh sb="0" eb="1">
-      <t>yun'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jie'shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hen'duo</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理完自己的序列</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zi'ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xu'lie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟修婷商量工作</t>
-    <rPh sb="0" eb="1">
-      <t>gen'xiu'ting</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shnag'liang'gong'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上读书整理框架</t>
-    <rPh sb="0" eb="1">
-      <t>wan'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>du'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>kuang'jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看任志强和视频</t>
-    <rPh sb="0" eb="1">
-      <t>kan'wan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ren'zhi'qiang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>he</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给华冠勋下载书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200逻辑学</t>
-    <rPh sb="4" eb="5">
-      <t>luo'ji'xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000逻辑学</t>
-    <rPh sb="4" eb="5">
-      <t>luo'ji'xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上没去运动又做实验做不出来</t>
-    <rPh sb="0" eb="1">
-      <t>wan'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mei'qu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yun'dong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you'zuo'shi'yan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zuo'bu'chu'lai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理一章书但是不够多</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'zhang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan'shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bu'gou'duo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟杨玉川视频</t>
-    <rPh sb="0" eb="1">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yang'yu'chuan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100大熊</t>
-    <rPh sb="4" eb="5">
-      <t>da'xiong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200大熊</t>
-    <rPh sb="4" eb="5">
-      <t>da'ixong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动健身</t>
-    <rPh sb="0" eb="1">
-      <t>yun'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jian'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又去运动健身</t>
-    <rPh sb="0" eb="1">
-      <t>you'qu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yun'dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看芳华写影评发现可以是一个途径表达自己</t>
-    <rPh sb="0" eb="1">
-      <t>kan'fang'hua</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fang'hua</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xie'ying'ping</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fa'xian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>tu'jing</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>biao'da</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zi'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟家里人视频</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jia'li'ren</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理大熊</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'l</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da'xiong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理大熊</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'li'da'xiong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟人吃饭</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chi'fan</t>
+      <t>qin'mi'fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2595,8 +2631,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2661,7 @@
         <v>200</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>113</v>
@@ -3392,13 +3428,13 @@
         <v>1521</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>118</v>
@@ -3418,13 +3454,13 @@
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -3438,16 +3474,16 @@
         <v>2881</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3461,16 +3497,16 @@
         <v>1714</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -3484,16 +3520,16 @@
         <v>3898</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -3505,13 +3541,13 @@
         <v>4301</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -3523,13 +3559,13 @@
         <v>3107</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -3541,16 +3577,16 @@
         <v>1368</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -3565,19 +3601,34 @@
         <v>4</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>20171225</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2642</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="G47" s="1"/>
     </row>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="239">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2198,6 +2198,45 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>qin'mi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4KM加自己迈出新一步</t>
+    <rPh sb="3" eb="4">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mai'chu'xin'yi'bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有进行数据分析项目</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju'fen'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting'shi'pin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2632,7 +2671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3635,6 +3674,21 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>20171226</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3305</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G48" s="1"/>
     </row>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="242">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1762,10 +1762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1100李笑来</t>
     <rPh sb="4" eb="5">
       <t>li'xiao'lai</t>
@@ -2238,6 +2234,37 @@
     <rPh sb="0" eb="1">
       <t>gen'xiu'ting'shi'pin</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起吃粮</t>
+    <rPh sb="0" eb="1">
+      <t>zao'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2段</t>
+    <rPh sb="1" eb="2">
+      <t>duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租自由耕作</t>
+    <rPh sb="0" eb="1">
+      <t>fang'zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G-50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2667,1060 +2694,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20171110</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>2131</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20171111</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
         <v>2422</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>20171112</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>20171113</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3">
         <v>303</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>20171114</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3">
         <v>655</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20171115</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3">
         <v>2286</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>20171116</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="3">
         <v>1754</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>20171117</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3">
         <v>993</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>20171118</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3">
         <v>1721</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20171119</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
         <v>1361</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20171120</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3">
         <v>2142</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>20171121</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3">
         <v>1139</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>602</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20171122</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3">
         <v>1383</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20171123</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3">
         <v>1171</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20171124</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>20171125</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
         <v>833</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>20171126</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>20171127</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
         <v>2879</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20171128</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
         <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20171129</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
         <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="1">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20171130</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20171201</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
         <v>838</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20171202</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>1410</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>20171203</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3">
         <v>1269</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>20171204</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3">
         <v>1605</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>20171205</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>4483</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>20171206</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
         <v>2420</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20171207</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
         <v>2176</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>20171208</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="3">
         <v>1365</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20171209</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="3">
         <v>3143</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>20171210</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="3">
         <v>2000</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>20171211</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="3">
         <v>2608</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>20171212</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="3">
         <v>1981</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>20171213</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
         <v>1979</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>20171214</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
         <v>0</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>20171215</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
         <v>1575</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>20171216</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="3">
         <v>1521</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>20171217</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
         <v>2142</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>20171218</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="3">
         <v>2881</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>20171219</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="3">
         <v>1714</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>20171220</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="3">
         <v>3898</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>20171221</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="3">
         <v>4301</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>20171222</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="3">
         <v>3107</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>20171223</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="3">
         <v>1368</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="E45" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>20171224</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
         <v>2119</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>20171225</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
         <v>2642</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>20171226</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3">
         <v>3305</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D48" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>20171227</v>
       </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>20171228</v>
       </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>20171229</v>
       </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>20171230</v>
       </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>20171231</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="245">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2244,13 +2244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2段</t>
-    <rPh sb="1" eb="2">
-      <t>duan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房租自由耕作</t>
     <rPh sb="0" eb="1">
       <t>fang'zu</t>
@@ -2265,6 +2258,46 @@
   </si>
   <si>
     <t>2G-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100金灿荣</t>
+    <rPh sb="4" eb="5">
+      <t>jin'can'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2KM高坡快走+器械课程</t>
+    <rPh sb="3" eb="4">
+      <t>gao'po'kuai'zou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi'xie'ke'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己还是考证</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷聊天</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xiu'ting</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao'tian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2697,8 +2730,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2724,7 +2757,7 @@
         <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>200</v>
@@ -3724,7 +3757,7 @@
         <v>3305</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>235</v>
@@ -3735,15 +3768,35 @@
       <c r="G48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>239</v>
+      <c r="H48" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>20171227</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="B49" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2533</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="247">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2257,10 +2257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2G-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1100金灿荣</t>
     <rPh sb="4" eb="5">
       <t>jin'can'rong</t>
@@ -2297,6 +2293,36 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>liao'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不该玩炉石</t>
+    <rPh sb="0" eb="1">
+      <t>bu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'lu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父母视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jia'r</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu'mu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300李笑来</t>
+    <rPh sb="4" eb="5">
+      <t>li'xiao'lai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2730,14 +2756,14 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" style="3" customWidth="1"/>
@@ -3756,8 +3782,8 @@
       <c r="C48" s="3">
         <v>3305</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>240</v>
+      <c r="D48" s="3">
+        <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>235</v>
@@ -3777,7 +3803,7 @@
         <v>20171227</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C49" s="3">
         <v>2533</v>
@@ -3786,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -3802,7 +3828,27 @@
       <c r="A50" s="3">
         <v>20171228</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3674</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="251">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -1207,16 +1207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>粮食自由耕作</t>
-    <rPh sb="0" eb="1">
-      <t>liang'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人生自由耕作</t>
     <rPh sb="0" eb="1">
       <t>ren'sheng</t>
@@ -2244,19 +2234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房租自由耕作</t>
-    <rPh sb="0" eb="1">
-      <t>fang'zu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'you</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>geng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1100金灿荣</t>
     <rPh sb="4" eb="5">
       <t>jin'can'rong</t>
@@ -2323,6 +2300,78 @@
     <t>2300李笑来</t>
     <rPh sb="4" eb="5">
       <t>li'xiao'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000李笑来</t>
+    <rPh sb="4" eb="5">
+      <t>li'xiao'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破点</t>
+    <rPh sb="0" eb="1">
+      <t>tu'po</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立足点</t>
+    <rPh sb="0" eb="1">
+      <t>li'zu'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟周冉聊天</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhou'ran</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定自己的方向了</t>
+    <rPh sb="0" eb="1">
+      <t>que'ding'zi'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang'xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表文章并且跟周冉学习</t>
+    <rPh sb="0" eb="1">
+      <t>fa'biao'wen'zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou'ran</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2753,49 +2802,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2808,14 +2858,14 @@
       <c r="C2" s="3">
         <v>2131</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2828,14 +2878,14 @@
       <c r="C3" s="3">
         <v>2422</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2848,14 +2898,14 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2868,14 +2918,14 @@
       <c r="C5" s="3">
         <v>303</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2888,17 +2938,17 @@
       <c r="C6" s="3">
         <v>655</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="1">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="1">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2911,14 +2961,14 @@
       <c r="C7" s="3">
         <v>2286</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="1">
+        <v>149</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" s="1">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2931,14 +2981,14 @@
       <c r="C8" s="3">
         <v>1754</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="1">
+        <v>178</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H8" s="1">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2951,14 +3001,14 @@
       <c r="C9" s="3">
         <v>993</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="1">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H9" s="1">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2971,14 +3021,14 @@
       <c r="C10" s="3">
         <v>1721</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="1">
+        <v>188</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" s="1">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2991,14 +3041,14 @@
       <c r="C11" s="3">
         <v>1361</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1">
+        <v>358</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H11" s="1">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3011,14 +3061,14 @@
       <c r="C12" s="3">
         <v>2142</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="1">
+        <v>471</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" s="1">
-        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3031,14 +3081,14 @@
       <c r="C13" s="3">
         <v>1139</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="1">
+        <v>602</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H13" s="1">
-        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3051,14 +3101,14 @@
       <c r="C14" s="3">
         <v>1383</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="1">
+        <v>463</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H14" s="1">
-        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3071,14 +3121,14 @@
       <c r="C15" s="3">
         <v>1171</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="1">
+        <v>161</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H15" s="1">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3091,17 +3141,17 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="1">
+        <v>76</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" s="1">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3114,14 +3164,14 @@
       <c r="C17" s="3">
         <v>833</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3134,17 +3184,17 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3157,14 +3207,14 @@
       <c r="C19" s="3">
         <v>2879</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3177,14 +3227,14 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="1">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3197,14 +3247,14 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="1">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3217,17 +3267,17 @@
       <c r="C22" s="3">
         <v>48</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3240,14 +3290,14 @@
       <c r="C23" s="3">
         <v>838</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3260,14 +3310,14 @@
       <c r="C24" s="3">
         <v>1410</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3280,17 +3330,17 @@
       <c r="C25" s="3">
         <v>1269</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3303,14 +3353,14 @@
       <c r="C26" s="3">
         <v>1605</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3323,14 +3373,14 @@
       <c r="C27" s="3">
         <v>4483</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3343,14 +3393,14 @@
       <c r="C28" s="3">
         <v>2420</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3363,14 +3413,14 @@
       <c r="C29" s="3">
         <v>2176</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3383,14 +3433,14 @@
       <c r="C30" s="3">
         <v>1365</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3403,14 +3453,14 @@
       <c r="C31" s="3">
         <v>3143</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3423,17 +3473,17 @@
       <c r="C32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3441,22 +3491,22 @@
         <v>20171211</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3">
         <v>2608</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>117</v>
+      <c r="D33" s="1">
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
+      <c r="H33" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3464,22 +3514,22 @@
         <v>20171212</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3">
         <v>1981</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3492,17 +3542,17 @@
       <c r="C35" s="3">
         <v>1979</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="G35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3515,17 +3565,17 @@
       <c r="C36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3538,14 +3588,14 @@
       <c r="C37" s="3">
         <v>1575</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3553,22 +3603,22 @@
         <v>20171216</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="3">
         <v>1521</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3581,17 +3631,17 @@
       <c r="C39" s="3">
         <v>2142</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>205</v>
+      <c r="D39" s="1">
+        <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3599,22 +3649,22 @@
         <v>20171218</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40" s="3">
         <v>2881</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,22 +3672,22 @@
         <v>20171219</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" s="3">
         <v>1714</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3645,22 +3695,22 @@
         <v>20171220</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="3">
         <v>3898</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,19 +3718,19 @@
         <v>20171221</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="3">
         <v>4301</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3688,19 +3738,19 @@
         <v>20171222</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="3">
         <v>3107</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>224</v>
+      <c r="D44" s="1">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3708,22 +3758,22 @@
         <v>20171223</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" s="3">
         <v>1368</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>225</v>
+      <c r="D45" s="1">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3736,17 +3786,17 @@
       <c r="C46" s="3">
         <v>2119</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3759,17 +3809,17 @@
       <c r="C47" s="3">
         <v>2642</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3782,20 +3832,20 @@
       <c r="C48" s="3">
         <v>3305</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3803,25 +3853,25 @@
         <v>20171227</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C49" s="3">
         <v>2533</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3829,44 +3879,434 @@
         <v>20171228</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C50" s="3">
         <v>3674</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>20171229</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6646</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>20171230</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>20171231</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>20180101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>20180102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>20180103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>20180104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>20180105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>20180106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>20180107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>20180108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>20180109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>20180110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>20180111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>20180112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>20180113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>20180114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>20180115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>20180116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>20180117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>20180118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>20180119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>20180120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>20180121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>20180122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>20180123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>20180124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>20180125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>20180126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>20180127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>20180128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>20180129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>20180130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>20180131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>20180201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>20180202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>20180203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>20180204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>20180205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>20180206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>20180207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>20180208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>20180209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>20180210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>20180211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>20180212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>20180213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>20180214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>20180215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>20180216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>20180217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>20180218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>20180219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>20180220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>20180221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>20180222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>20180223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>20180224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>20180225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>20180226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>20180227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>20180228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>20180301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>20180302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>20180303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>20180304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>20180305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>20180306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>20180307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>20180308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>20180309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>20180310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>20180311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>20180312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>20180313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>20180314</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>20180315</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3890,13 +4330,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5829,16 +6269,16 @@
         <v>171009</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1">
         <v>30000</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5846,10 +6286,10 @@
         <v>171125</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5857,16 +6297,16 @@
         <v>171201</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="9">
         <v>10000</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5890,19 +6330,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6011,28 +6451,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6040,10 +6480,10 @@
         <v>170825</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D2" s="1">
         <v>3.024</v>
@@ -6066,10 +6506,10 @@
         <v>170907</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D3" s="1">
         <v>3.0249999999999999</v>
@@ -6086,10 +6526,10 @@
         <v>171009</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="8"/>
@@ -6102,10 +6542,10 @@
         <v>171108</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D5" s="1">
         <v>3.0550000000000002</v>
@@ -6141,27 +6581,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1">
         <v>1200</v>
@@ -6170,7 +6610,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="11">
         <v>42966</v>
@@ -6179,64 +6619,64 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6251,25 +6691,25 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6296,16 +6736,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,7 +6753,7 @@
         <v>170715</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1">
         <v>5400</v>
@@ -6327,7 +6767,7 @@
         <v>170720</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1">
         <v>-2500</v>
@@ -6341,7 +6781,7 @@
         <v>170729</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1">
         <v>10000</v>
@@ -6355,7 +6795,7 @@
         <v>170815</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1">
         <v>-8000</v>
@@ -6369,7 +6809,7 @@
         <v>170820</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1">
         <v>20000</v>
@@ -6383,7 +6823,7 @@
         <v>170826</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1">
         <v>-8000</v>
@@ -6397,7 +6837,7 @@
         <v>170827</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1">
         <v>-13000</v>
@@ -6411,7 +6851,7 @@
         <v>170828</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1">
         <v>-3000</v>
@@ -6425,7 +6865,7 @@
         <v>170830</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1">
         <v>2000</v>
@@ -6439,7 +6879,7 @@
         <v>170907</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="1">
         <v>-2200</v>
@@ -6453,7 +6893,7 @@
         <v>171009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1">
         <v>30000</v>
@@ -6467,7 +6907,7 @@
         <v>171025</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1">
         <v>-900</v>
@@ -6481,7 +6921,7 @@
         <v>171026</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1">
         <v>-29750</v>
@@ -6495,7 +6935,7 @@
         <v>171101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="1">
         <v>5000</v>
@@ -6509,7 +6949,7 @@
         <v>171105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1">
         <v>-5000</v>
@@ -6523,7 +6963,7 @@
         <v>171201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1">
         <v>8000</v>
@@ -6537,7 +6977,7 @@
         <v>171206</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1">
         <v>-7000</v>

--- a/一五耕作收成.xlsx
+++ b/一五耕作收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="252">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2372,6 +2372,13 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>xue'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000金灿荣</t>
+    <rPh sb="4" eb="5">
+      <t>jin'can'rong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2805,8 +2812,8 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3935,6 +3942,9 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>20171231</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="D53" s="1"/>
     </row>
